--- a/biology/Histoire de la zoologie et de la botanique/Schleid/Schleid..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Schleid/Schleid..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Matthias Jakob Schleiden est un botaniste allemand célèbre pour être l’un des fondateurs de la théorie cellulaire, né le 5 avril 1804 à Hambourg et mort le 23 juin 1881 à Francfort-sur-le-Main.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il fait ses études à Heidelberg de 1824 à 1827 et commence à pratiquer le droit à Hambourg, mais il se consacre bientôt à plein-temps à sa passion : la botanique. Il enseigne alors la botanique à Iéna, Tartu (en Estonie), Dresde, Wiesbaden, Francfort-sur-le-Main.
 Dans son livre, Beiträge zur Phytogenesis (Contributions à la phytogenèse, 1838, écrit pendant sa période comme professeur à l'Université d'Iéna), il examine les différentes parties constituant une plante et détermine qu’elles sont composées de cellules. Il affirme l’importance du noyau de la cellule découvert par le botaniste écossais Robert Brown (1773-1858) et son rôle dans la division cellulaire. Contrairement aux autres botanistes de l’époque, qui s’intéressaient principalement à la description d’espèces nouvelles et aux questions de taxinomie, Schleiden utilise principalement le microscope pour étudier les végétaux. C’est lui qui incite Carl Zeiss (1816-1888) à Iéna à produire des microscopes d’une façon industrielle.
